--- a/arquivo excel/1- Episódio com votação acima de 9.5.xlsx
+++ b/arquivo excel/1- Episódio com votação acima de 9.5.xlsx
@@ -8,21 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Documentos\Estudo Resilia\Módulo 3\Projeto de Final de Módulo\GoT_Data_Processing_Resilia\arquivo excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0FAA3E7-E2B1-43B2-8202-924ED43A940A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25772E29-A97E-46AB-A3F7-A587493A7BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1- Episódio com votação acima d" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'1- Episódio com votação acima d'!$C$2:$E$11</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'1- Episódio com votação acima d'!$F$1</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'1- Episódio com votação acima d'!$F$2:$F$11</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'1- Episódio com votação acima d'!$C$2:$E$11</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'1- Episódio com votação acima d'!$F$1</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'1- Episódio com votação acima d'!$F$2:$F$11</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -48,49 +40,49 @@
     <t>Votos</t>
   </si>
   <si>
-    <t>Baelor</t>
-  </si>
-  <si>
-    <t>Blackwater</t>
-  </si>
-  <si>
     <t>27-May-12</t>
   </si>
   <si>
-    <t>And Now His Watch Is Ended</t>
-  </si>
-  <si>
     <t>21-Apr-13</t>
   </si>
   <si>
-    <t>The Rains of Castamere</t>
-  </si>
-  <si>
-    <t>The Lion and the Rose</t>
-  </si>
-  <si>
     <t>13-Apr-14</t>
   </si>
   <si>
-    <t>The Laws of Gods and Men</t>
-  </si>
-  <si>
     <t>11-May-14</t>
   </si>
   <si>
-    <t>The Mountain and the Viper</t>
-  </si>
-  <si>
-    <t>The Watchers on the Wall</t>
-  </si>
-  <si>
-    <t>The Children</t>
-  </si>
-  <si>
-    <t>Hardhome</t>
-  </si>
-  <si>
     <t>31-May-15</t>
+  </si>
+  <si>
+    <t>Temp. 1 Epi. 9</t>
+  </si>
+  <si>
+    <t>Temp. 2 Epi. 9</t>
+  </si>
+  <si>
+    <t>Temp. 3 Epi. 4</t>
+  </si>
+  <si>
+    <t>Temp. 3 Epi. 9</t>
+  </si>
+  <si>
+    <t>Temp. 4 Epi. 2</t>
+  </si>
+  <si>
+    <t>Temp. 4 Epi. 6</t>
+  </si>
+  <si>
+    <t>Temp.  4 Epi. 8</t>
+  </si>
+  <si>
+    <t>Temp. 4 Epi. 9</t>
+  </si>
+  <si>
+    <t>Temp. 4 Epi. 10</t>
+  </si>
+  <si>
+    <t>Temp. 5 Epi. 8</t>
   </si>
 </sst>
 </file>
@@ -270,6 +262,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-184D-44A9-90C2-132F788A8A1C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -292,6 +289,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-184D-44A9-90C2-132F788A8A1C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -314,6 +316,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-184D-44A9-90C2-132F788A8A1C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -336,6 +343,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-184D-44A9-90C2-132F788A8A1C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -358,6 +370,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-184D-44A9-90C2-132F788A8A1C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -380,6 +397,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-184D-44A9-90C2-132F788A8A1C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -405,6 +427,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-184D-44A9-90C2-132F788A8A1C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -430,6 +457,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-184D-44A9-90C2-132F788A8A1C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -455,6 +487,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-184D-44A9-90C2-132F788A8A1C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -480,6 +517,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-184D-44A9-90C2-132F788A8A1C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -543,34 +585,34 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>Baelor</c:v>
+                  <c:v>Temp. 1 Epi. 9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Blackwater</c:v>
+                  <c:v>Temp. 2 Epi. 9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>And Now His Watch Is Ended</c:v>
+                  <c:v>Temp. 3 Epi. 4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>The Rains of Castamere</c:v>
+                  <c:v>Temp. 3 Epi. 9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>The Lion and the Rose</c:v>
+                  <c:v>Temp. 4 Epi. 2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>The Laws of Gods and Men</c:v>
+                  <c:v>Temp. 4 Epi. 6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>The Mountain and the Viper</c:v>
+                  <c:v>Temp.  4 Epi. 8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>The Watchers on the Wall</c:v>
+                  <c:v>Temp. 4 Epi. 9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>The Children</c:v>
+                  <c:v>Temp. 4 Epi. 10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Hardhome</c:v>
+                  <c:v>Temp. 5 Epi. 8</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>9.6</c:v>
@@ -1679,11 +1721,14 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1713,7 +1758,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>40706</v>
@@ -1733,10 +1778,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3">
         <v>44751</v>
@@ -1753,10 +1798,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3">
         <v>44721</v>
@@ -1773,7 +1818,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>41427</v>
@@ -1793,10 +1838,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3">
         <v>44751</v>
@@ -1813,10 +1858,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3">
         <v>44751</v>
@@ -1833,7 +1878,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>41791</v>
@@ -1853,7 +1898,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>41798</v>
@@ -1873,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>41805</v>
@@ -1893,10 +1938,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3">
         <v>44813</v>
